--- a/doc/HarvesterResumptionLogic.xlsx
+++ b/doc/HarvesterResumptionLogic.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="17715" windowHeight="11820"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="17715" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="OaiRunResult processing" sheetId="1" r:id="rId1"/>
+    <sheet name="waitForNextRun logic" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <t>(last) OaiRunResult loaded from DB</t>
   </si>
@@ -85,15 +85,74 @@
     <t>T</t>
   </si>
   <si>
-    <t>plus Tests, wenn resumptionToken als invalide vom Server gemeldet wird!! - vmtl müssen hierfür auch die nicht erfolgreichen OaiRunResults in der DB gespeichert werden, da sonst immer wieder der invalide resumptionToken verwendet wird!!</t>
+    <t>resumptioToken present</t>
+  </si>
+  <si>
+    <t>lastRunResultedInError</t>
+  </si>
+  <si>
+    <t>timestampLastRun present</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>resulting time to wait till next run</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Impossible. If there is a resumptionToken present, there is always a timestampLastRun present.</t>
+  </si>
+  <si>
+    <t>pollInterval</t>
+  </si>
+  <si>
+    <t>very first run of harvester, start immediately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If lastRunResultedInError==true, always wait pollInterval. </t>
+  </si>
+  <si>
+    <t>next run is usually at timestampLastRun + pollInterval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waitTime depends on how much time already passed between the timestampLastRun and the current point in time. We need to wait till timestampLastRun + pollInterval is reached so waitTime is something between 0 and pollInterval. (Here, we need to consider that the harvester may have been shut down after the last successful run has been written to persistence layer.)
+Furthermore, we need to check whether timestampLastRun is in future of now() - if so, this is an error and we wait for a whole pollInterval. </t>
+  </si>
+  <si>
+    <t>minimumWaittimeBetweenTwoRequests</t>
+  </si>
+  <si>
+    <t>We have a resumption token, that means we process an OAI service provider's paginated response. Therefore, we wait a very short time such as 1 second (to avoid beeing blocked by OAI service provider, our requests are no denial-of-service attack)
+It is worth mentioning that we can ignore the potential error that timestampLastRun may be future: 
+* if the resumption token is valid, we get the next page of a paginated response ( and go to case 2 or 3 next time waitForNextRun(..) is called), or
+* if it is invalid, next the run will result in a OAI error "badResumptionToken" and case 2 will be processed next time waitForNextRun(..) is called, or
+* the run will result in an error, so lastRunResultedInError== true next time waitForNextRun(..) is called  (this may always happen)
+=&gt; in any case, we should not end in an infinite loop with case 3, sending requests at a high frequency.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>(4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -455,11 +514,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -516,6 +685,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,29 +733,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,28 +1145,28 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="23"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
@@ -926,8 +1176,8 @@
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -957,13 +1207,13 @@
       <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="25">
         <v>111</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="26">
         <v>111</v>
       </c>
       <c r="J4" s="19" t="s">
@@ -989,13 +1239,13 @@
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="21">
         <v>222</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="20">
         <v>222</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1021,13 +1271,13 @@
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1053,13 +1303,13 @@
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="21">
         <v>333</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="20">
         <v>333</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1082,10 +1332,10 @@
       <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="31" t="s">
+      <c r="G8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1111,10 +1361,10 @@
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="G9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -1124,17 +1374,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:E12"/>
+  <mergeCells count="5">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:B3"/>
@@ -1148,13 +1395,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="44">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="50">
+        <v>2</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="2:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="B9" s="50">
+        <v>3</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
